--- a/file13.xlsx
+++ b/file13.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spencerxie/PycharmProjects/test/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spencerxie/PycharmProjects/excel_process_scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557DBA9A-1152-7540-AD26-95620A0C24CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32548BAA-570D-5D4B-A8FD-25D4C3A781CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>c11</t>
   </si>
@@ -41,6 +41,10 @@
   </si>
   <si>
     <t>d2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d11d21</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -106,11 +110,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -413,13 +418,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -447,8 +455,8 @@
       <c r="C2">
         <v>20</v>
       </c>
-      <c r="D2">
-        <v>21</v>
+      <c r="D2" s="2">
+        <v>44561.934432870374</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -461,8 +469,8 @@
       <c r="C3">
         <v>23</v>
       </c>
-      <c r="D3">
-        <v>24</v>
+      <c r="D3" s="2">
+        <v>44562.934432870374</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -475,8 +483,22 @@
       <c r="C4">
         <v>26</v>
       </c>
-      <c r="D4">
-        <v>27</v>
+      <c r="D4" s="2">
+        <v>44563.934432870374</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2">
+        <v>44563.934432870374</v>
       </c>
     </row>
   </sheetData>
